--- a/data/trans_orig/P19C09-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P19C09-Edad-trans_orig.xlsx
@@ -743,19 +743,19 @@
         <v>3547</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>901</v>
+        <v>934</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>8099</v>
+        <v>8421</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.009869185364095975</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.002507760890028213</v>
+        <v>0.002598902422408442</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.02253428041300115</v>
+        <v>0.02343181218305105</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>5</v>
@@ -764,19 +764,19 @@
         <v>4763</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>1861</v>
+        <v>1901</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>10593</v>
+        <v>10686</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.01265926828930309</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.004945289330116509</v>
+        <v>0.005052642734329925</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.02815436947727228</v>
+        <v>0.02840031336393259</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>9</v>
@@ -785,19 +785,19 @@
         <v>8310</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>3822</v>
+        <v>3733</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>15144</v>
+        <v>14809</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.0112961816137131</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.005195027837810552</v>
+        <v>0.005074002744975766</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.02058646483214891</v>
+        <v>0.02013048590714754</v>
       </c>
     </row>
     <row r="5">
@@ -814,19 +814,19 @@
         <v>355854</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>351302</v>
+        <v>350980</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>358500</v>
+        <v>358467</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.990130814635904</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.9774657195869988</v>
+        <v>0.9765681878169485</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.9974922391099716</v>
+        <v>0.9974010975775915</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>390</v>
@@ -835,19 +835,19 @@
         <v>371489</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>365659</v>
+        <v>365566</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>374391</v>
+        <v>374351</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.9873407317106969</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.9718456305227278</v>
+        <v>0.9715996866360671</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.9950547106698835</v>
+        <v>0.9949473572656701</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>748</v>
@@ -856,19 +856,19 @@
         <v>727343</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>720509</v>
+        <v>720844</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>731831</v>
+        <v>731920</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.988703818386287</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.979413535167851</v>
+        <v>0.9798695140928525</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.9948049721621894</v>
+        <v>0.9949259972550243</v>
       </c>
     </row>
     <row r="6">
@@ -960,19 +960,19 @@
         <v>11569</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>6117</v>
+        <v>5742</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>22106</v>
+        <v>20289</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.02009285397799415</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.0106229681845683</v>
+        <v>0.009973275598112591</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.03839293272123064</v>
+        <v>0.03523790369236202</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>12</v>
@@ -981,19 +981,19 @@
         <v>12907</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>7230</v>
+        <v>6628</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>22326</v>
+        <v>22362</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.02356625026813666</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.01320111186667745</v>
+        <v>0.01210120774074709</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.04076201595581452</v>
+        <v>0.04082908893474708</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>22</v>
@@ -1002,19 +1002,19 @@
         <v>24477</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>15839</v>
+        <v>15960</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>37433</v>
+        <v>37439</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.02178615637752331</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.01409839517507615</v>
+        <v>0.01420610193487532</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.03331896209100269</v>
+        <v>0.0333241663570299</v>
       </c>
     </row>
     <row r="8">
@@ -1031,19 +1031,19 @@
         <v>564212</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>553675</v>
+        <v>555492</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>569664</v>
+        <v>570039</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.9799071460220058</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.9616070672787691</v>
+        <v>0.9647620963076379</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9893770318154317</v>
+        <v>0.9900267244018874</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>507</v>
@@ -1052,19 +1052,19 @@
         <v>534801</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>525382</v>
+        <v>525346</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>540478</v>
+        <v>541080</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.9764337497318634</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.9592379840441855</v>
+        <v>0.9591709110652529</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.9867988881333225</v>
+        <v>0.9878987922592529</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>1051</v>
@@ -1073,19 +1073,19 @@
         <v>1099012</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>1086056</v>
+        <v>1086050</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>1107650</v>
+        <v>1107529</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.9782138436224767</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.966681037908997</v>
+        <v>0.9666758336429701</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9859016048249238</v>
+        <v>0.9857938980651246</v>
       </c>
     </row>
     <row r="9">
@@ -1177,19 +1177,19 @@
         <v>12406</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>6912</v>
+        <v>6570</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>20894</v>
+        <v>22321</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.02476126201315123</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.01379600181798582</v>
+        <v>0.01311287700374168</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.04170317523831162</v>
+        <v>0.04455284879735118</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>10</v>
@@ -1198,19 +1198,19 @@
         <v>10798</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>5538</v>
+        <v>5643</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>20502</v>
+        <v>19528</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.01795165289678513</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.009206659528559695</v>
+        <v>0.009380823627253888</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.03408272060886432</v>
+        <v>0.03246387830518577</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>22</v>
@@ -1219,19 +1219,19 @@
         <v>23204</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>14982</v>
+        <v>14828</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>34084</v>
+        <v>34273</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.02104603947640362</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.01358895138438056</v>
+        <v>0.01344869741236003</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.03091430516253993</v>
+        <v>0.03108528743626773</v>
       </c>
     </row>
     <row r="11">
@@ -1248,19 +1248,19 @@
         <v>488604</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>480116</v>
+        <v>478689</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>494098</v>
+        <v>494440</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.9752387379868488</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.9582968247616881</v>
+        <v>0.955447151202649</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.986203998182014</v>
+        <v>0.9868871229962584</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>563</v>
@@ -1269,19 +1269,19 @@
         <v>590731</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>581027</v>
+        <v>582001</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>595991</v>
+        <v>595886</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.9820483471032149</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.9659172793911357</v>
+        <v>0.9675361216948143</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.9907933404714403</v>
+        <v>0.9906191763727462</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>1035</v>
@@ -1290,19 +1290,19 @@
         <v>1079335</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>1068455</v>
+        <v>1068266</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>1087557</v>
+        <v>1087711</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.9789539605235964</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.9690856948374601</v>
+        <v>0.968914712563732</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.9864110486156195</v>
+        <v>0.9865513025876399</v>
       </c>
     </row>
     <row r="12">
@@ -1394,19 +1394,19 @@
         <v>6423</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>1923</v>
+        <v>2042</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>14935</v>
+        <v>15093</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.01587020408397092</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.004750937494366222</v>
+        <v>0.005045213891137162</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.03689907474317539</v>
+        <v>0.03728895493509741</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>14</v>
@@ -1415,19 +1415,19 @@
         <v>14734</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>7967</v>
+        <v>8450</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>23611</v>
+        <v>23006</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.03354831339946655</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.01814152932864039</v>
+        <v>0.01923997470369512</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.05376049667078621</v>
+        <v>0.05238282739041471</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>19</v>
@@ -1436,19 +1436,19 @@
         <v>21157</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>13034</v>
+        <v>13644</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>32248</v>
+        <v>32269</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.02506993998537152</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.01544445347758286</v>
+        <v>0.01616698546113218</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.03821104895475116</v>
+        <v>0.03823599328685022</v>
       </c>
     </row>
     <row r="14">
@@ -1465,19 +1465,19 @@
         <v>398325</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>389813</v>
+        <v>389655</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>402825</v>
+        <v>402706</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.9841297959160291</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.9631009252568247</v>
+        <v>0.9627110450649026</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9952490625056337</v>
+        <v>0.9949547861088629</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>415</v>
@@ -1486,19 +1486,19 @@
         <v>424451</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>415574</v>
+        <v>416179</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>431218</v>
+        <v>430735</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.9664516866005335</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.9462395033292132</v>
+        <v>0.9476171726095852</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.9818584706713596</v>
+        <v>0.9807600252963048</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>790</v>
@@ -1507,19 +1507,19 @@
         <v>822776</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>811685</v>
+        <v>811664</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>830899</v>
+        <v>830289</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.9749300600146285</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.9617889510452483</v>
+        <v>0.9617640067131498</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9845555465224168</v>
+        <v>0.9838330145388676</v>
       </c>
     </row>
     <row r="15">
@@ -1611,19 +1611,19 @@
         <v>9527</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>4666</v>
+        <v>4569</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>16874</v>
+        <v>16284</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.03508876312908449</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.01718745342484989</v>
+        <v>0.01682664868717402</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.06215164593570319</v>
+        <v>0.05997621284932871</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>18</v>
@@ -1632,19 +1632,19 @@
         <v>18360</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>10824</v>
+        <v>11134</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>27855</v>
+        <v>28379</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.05783784760328983</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.03409777059875594</v>
+        <v>0.03507517902965343</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.08774883577685128</v>
+        <v>0.08940239866265255</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>28</v>
@@ -1653,19 +1653,19 @@
         <v>27887</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>18733</v>
+        <v>18467</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>39823</v>
+        <v>39346</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.04735037137618163</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.03180717117785945</v>
+        <v>0.03135629307443277</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.06761828889161792</v>
+        <v>0.06680745815624818</v>
       </c>
     </row>
     <row r="17">
@@ -1682,19 +1682,19 @@
         <v>261978</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>254631</v>
+        <v>255221</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>266839</v>
+        <v>266936</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.9649112368709155</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.9378483540642949</v>
+        <v>0.9400237871506714</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.9828125465751502</v>
+        <v>0.9831733513128259</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>293</v>
@@ -1703,19 +1703,19 @@
         <v>299075</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>289580</v>
+        <v>289056</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>306611</v>
+        <v>306301</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.9421621523967102</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.9122511642231487</v>
+        <v>0.9105976013373471</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.965902229401244</v>
+        <v>0.9649248209703465</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>558</v>
@@ -1724,19 +1724,19 @@
         <v>561053</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>549117</v>
+        <v>549594</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>570207</v>
+        <v>570473</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.9526496286238184</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.9323817111083821</v>
+        <v>0.9331925418437519</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.9681928288221406</v>
+        <v>0.9686437069255674</v>
       </c>
     </row>
     <row r="18">
@@ -1828,19 +1828,19 @@
         <v>9109</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>4591</v>
+        <v>4556</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>16356</v>
+        <v>16143</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.04311237815100104</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.02173085573435518</v>
+        <v>0.02156195514418545</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.07741561734381798</v>
+        <v>0.07640722863810231</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>15</v>
@@ -1849,19 +1849,19 @@
         <v>14321</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>8478</v>
+        <v>8381</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>23094</v>
+        <v>22939</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.05799466270028164</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.03433406303654427</v>
+        <v>0.03393818643586829</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.09352269018976535</v>
+        <v>0.09289500589367554</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>25</v>
@@ -1870,19 +1870,19 @@
         <v>23430</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>15646</v>
+        <v>16174</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>33595</v>
+        <v>33725</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.05113256116033962</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.03414479130445339</v>
+        <v>0.03529670394196691</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.07331588026722748</v>
+        <v>0.07360016969351839</v>
       </c>
     </row>
     <row r="20">
@@ -1899,19 +1899,19 @@
         <v>202172</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>194925</v>
+        <v>195138</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>206690</v>
+        <v>206725</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.956887621848999</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.9225843826561819</v>
+        <v>0.9235927713618977</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.9782691442656448</v>
+        <v>0.9784380448558145</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>252</v>
@@ -1920,19 +1920,19 @@
         <v>232617</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>223844</v>
+        <v>223999</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>238460</v>
+        <v>238557</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.9420053372997184</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.9064773098102347</v>
+        <v>0.9071049941063241</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.9656659369634556</v>
+        <v>0.9660618135641312</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>460</v>
@@ -1941,19 +1941,19 @@
         <v>434789</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>424624</v>
+        <v>424494</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>442573</v>
+        <v>442045</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.9488674388396604</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.926684119732773</v>
+        <v>0.9263998303064817</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.9658552086955472</v>
+        <v>0.9647032960580332</v>
       </c>
     </row>
     <row r="21">
@@ -2045,19 +2045,19 @@
         <v>11709</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>6402</v>
+        <v>6362</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>20192</v>
+        <v>20115</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.0923680681264632</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.05049991220900369</v>
+        <v>0.05019017668785411</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.1592912855190678</v>
+        <v>0.1586821084315896</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>9</v>
@@ -2066,19 +2066,19 @@
         <v>10150</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>4596</v>
+        <v>4597</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>18903</v>
+        <v>18029</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.04874922035898497</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.0220747670209498</v>
+        <v>0.0220787513564649</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.09079069746825429</v>
+        <v>0.08659141350548315</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>21</v>
@@ -2087,19 +2087,19 @@
         <v>21859</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>13721</v>
+        <v>13792</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>32436</v>
+        <v>32585</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.0652559727525083</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.04096194495426966</v>
+        <v>0.04117402633758346</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.09683304294741274</v>
+        <v>0.09727736839750595</v>
       </c>
     </row>
     <row r="23">
@@ -2116,19 +2116,19 @@
         <v>115055</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>106572</v>
+        <v>106649</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>120362</v>
+        <v>120402</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.9076319318735369</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.8407087144809322</v>
+        <v>0.8413178915684105</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.9495000877909963</v>
+        <v>0.9498098233121459</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>173</v>
@@ -2137,19 +2137,19 @@
         <v>198058</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>189305</v>
+        <v>190179</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>203612</v>
+        <v>203611</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.951250779641015</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.9092093025317457</v>
+        <v>0.9134085864945168</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.9779252329790502</v>
+        <v>0.977921248643535</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>291</v>
@@ -2158,19 +2158,19 @@
         <v>313113</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>302536</v>
+        <v>302387</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>321251</v>
+        <v>321180</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.9347440272474917</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.9031669570525872</v>
+        <v>0.9027226316024941</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.9590380550457301</v>
+        <v>0.9588259736624165</v>
       </c>
     </row>
     <row r="24">
@@ -2262,19 +2262,19 @@
         <v>64290</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>49806</v>
+        <v>48637</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>80896</v>
+        <v>81935</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.02623544144549551</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.02032472880889192</v>
+        <v>0.01984794446507648</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.03301234151462525</v>
+        <v>0.03343610597349272</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>83</v>
@@ -2283,19 +2283,19 @@
         <v>86034</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>70300</v>
+        <v>69123</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>107270</v>
+        <v>105366</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.03143063071377918</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.02568272201931696</v>
+        <v>0.02525257214440569</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.0391889274398797</v>
+        <v>0.03849339884572671</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>146</v>
@@ -2304,19 +2304,19 @@
         <v>150323</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>128875</v>
+        <v>127782</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>177979</v>
+        <v>176199</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.02897662393162866</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.02484214043558011</v>
+        <v>0.02463157344782127</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.03430749489290458</v>
+        <v>0.03396449384356837</v>
       </c>
     </row>
     <row r="26">
@@ -2333,19 +2333,19 @@
         <v>2386201</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>2369595</v>
+        <v>2368556</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>2400685</v>
+        <v>2401854</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.9737645585545045</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.9669876584853748</v>
+        <v>0.9665638940265072</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.9796752711911082</v>
+        <v>0.9801520555349228</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>2593</v>
@@ -2354,19 +2354,19 @@
         <v>2651221</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>2629985</v>
+        <v>2631889</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>2666955</v>
+        <v>2668132</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.9685693692862208</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.9608110725601201</v>
+        <v>0.9615066011542729</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.974317277980683</v>
+        <v>0.9747474278555942</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>4933</v>
@@ -2375,19 +2375,19 @@
         <v>5037422</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>5009766</v>
+        <v>5011546</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>5058870</v>
+        <v>5059963</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.9710233760683713</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.9656925051070953</v>
+        <v>0.9660355061564316</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.9751578595644196</v>
+        <v>0.9753684265521786</v>
       </c>
     </row>
     <row r="27">
@@ -2722,19 +2722,19 @@
         <v>7835</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>3754</v>
+        <v>3158</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>14342</v>
+        <v>14981</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.02139797222786283</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.01025070590136604</v>
+        <v>0.008625668015723505</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.03916667071536291</v>
+        <v>0.04091298668039445</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>11</v>
@@ -2743,19 +2743,19 @@
         <v>11038</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>6006</v>
+        <v>5835</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>19272</v>
+        <v>19230</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.03055100987908681</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.01662212818813615</v>
+        <v>0.0161504531566534</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.05334136005197588</v>
+        <v>0.05322423745966788</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>19</v>
@@ -2764,19 +2764,19 @@
         <v>18873</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>11992</v>
+        <v>11709</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>29169</v>
+        <v>28858</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.02594383399510602</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.01648418998429215</v>
+        <v>0.01609500066397981</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.04009696182159976</v>
+        <v>0.0396695749741891</v>
       </c>
     </row>
     <row r="5">
@@ -2793,19 +2793,19 @@
         <v>358337</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>351830</v>
+        <v>351191</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>362418</v>
+        <v>363014</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.9786020277721371</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.9608333292846362</v>
+        <v>0.9590870133196056</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.989749294098634</v>
+        <v>0.9913743319842772</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>341</v>
@@ -2814,19 +2814,19 @@
         <v>350261</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>342027</v>
+        <v>342069</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>355293</v>
+        <v>355464</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.9694489901209132</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.9466586399480243</v>
+        <v>0.9467757625403321</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.9833778718118639</v>
+        <v>0.9838495468433466</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>694</v>
@@ -2835,19 +2835,19 @@
         <v>708598</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>698302</v>
+        <v>698613</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>715479</v>
+        <v>715762</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.974056166004894</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.9599030381783998</v>
+        <v>0.9603304250258108</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.9835158100157079</v>
+        <v>0.9839049993360202</v>
       </c>
     </row>
     <row r="6">
@@ -2939,19 +2939,19 @@
         <v>10571</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>5665</v>
+        <v>4916</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>20032</v>
+        <v>19240</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.01793823891702571</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.009612873256111949</v>
+        <v>0.008341218998772859</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.03399106807578015</v>
+        <v>0.03264772524208347</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>18</v>
@@ -2960,19 +2960,19 @@
         <v>18980</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>11726</v>
+        <v>11935</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>28424</v>
+        <v>30185</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.03504531658057698</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.0216513146608058</v>
+        <v>0.02203671253039989</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.05248442266520872</v>
+        <v>0.05573525765293078</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>28</v>
@@ -2981,19 +2981,19 @@
         <v>29551</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>20680</v>
+        <v>20200</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>42146</v>
+        <v>42629</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.02613065263978622</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.01828667612065094</v>
+        <v>0.01786155602481535</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.03726803391546869</v>
+        <v>0.03769496441722928</v>
       </c>
     </row>
     <row r="8">
@@ -3010,19 +3010,19 @@
         <v>578752</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>569291</v>
+        <v>570083</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>583658</v>
+        <v>584407</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.9820617610829743</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.9660089319242199</v>
+        <v>0.9673522747579164</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9903871267438881</v>
+        <v>0.9916587810012271</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>488</v>
@@ -3031,19 +3031,19 @@
         <v>522597</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>513153</v>
+        <v>511392</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>529851</v>
+        <v>529642</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.964954683419423</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.9475155773347911</v>
+        <v>0.9442647423470691</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.9783486853391941</v>
+        <v>0.9779632874695999</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>1050</v>
@@ -3052,19 +3052,19 @@
         <v>1101348</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>1088753</v>
+        <v>1088270</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>1110219</v>
+        <v>1110699</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.9738693473602138</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.9627319660845314</v>
+        <v>0.9623050355827707</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9817133238793491</v>
+        <v>0.9821384439751846</v>
       </c>
     </row>
     <row r="9">
@@ -3156,19 +3156,19 @@
         <v>6933</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>2912</v>
+        <v>2856</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>15918</v>
+        <v>15469</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.01213996247102808</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.005098887154636834</v>
+        <v>0.005000276276023394</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.02787270477565749</v>
+        <v>0.02708554695612179</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>13</v>
@@ -3177,19 +3177,19 @@
         <v>16848</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>9557</v>
+        <v>9198</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>28829</v>
+        <v>28361</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.02619273627047583</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.01485804663363289</v>
+        <v>0.01429991096152382</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.04481914937915609</v>
+        <v>0.04409144715332119</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>19</v>
@@ -3198,19 +3198,19 @@
         <v>23781</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>14119</v>
+        <v>15138</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>36668</v>
+        <v>38080</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.01958364650015229</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.0116268824481474</v>
+        <v>0.01246638884724236</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.03019660322983131</v>
+        <v>0.03135934933511053</v>
       </c>
     </row>
     <row r="11">
@@ -3227,19 +3227,19 @@
         <v>564169</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>555184</v>
+        <v>555633</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>568190</v>
+        <v>568246</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.9878600375289719</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.9721272952243427</v>
+        <v>0.9729144530438782</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.9949011128453631</v>
+        <v>0.9949997237239766</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>594</v>
@@ -3248,19 +3248,19 @@
         <v>626372</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>614391</v>
+        <v>614859</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>633663</v>
+        <v>634022</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.9738072637295242</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.9551808506208437</v>
+        <v>0.9559085528466784</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.985141953366367</v>
+        <v>0.9857000890384762</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>1136</v>
@@ -3269,19 +3269,19 @@
         <v>1190541</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>1177654</v>
+        <v>1176242</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>1200203</v>
+        <v>1199184</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.9804163534998477</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.9698033967701686</v>
+        <v>0.9686406506648895</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.9883731175518523</v>
+        <v>0.9875336111527575</v>
       </c>
     </row>
     <row r="12">
@@ -3376,16 +3376,16 @@
         <v>2117</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>13138</v>
+        <v>12266</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.01178478614465506</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.004064998582712091</v>
+        <v>0.004063509165806415</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.0252234253006962</v>
+        <v>0.02354934530459557</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>8</v>
@@ -3394,19 +3394,19 @@
         <v>9808</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>4294</v>
+        <v>4365</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>19519</v>
+        <v>18648</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.01793490184473743</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.007852055728223421</v>
+        <v>0.007982183521031052</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.03569121586664753</v>
+        <v>0.03409934644293582</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>14</v>
@@ -3415,19 +3415,19 @@
         <v>15947</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>9328</v>
+        <v>9335</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>27939</v>
+        <v>27564</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.01493472473782087</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.008735877006628088</v>
+        <v>0.008742356332437485</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.02616620418134825</v>
+        <v>0.02581505231246388</v>
       </c>
     </row>
     <row r="14">
@@ -3444,7 +3444,7 @@
         <v>514742</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>507742</v>
+        <v>508614</v>
       </c>
       <c r="F14" s="5" t="n">
         <v>518763</v>
@@ -3453,10 +3453,10 @@
         <v>0.9882152138553449</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.9747765746993038</v>
+        <v>0.9764506546954043</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9959350014172879</v>
+        <v>0.9959364908341936</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>471</v>
@@ -3465,19 +3465,19 @@
         <v>537073</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>527362</v>
+        <v>528233</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>542587</v>
+        <v>542516</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.9820650981552626</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.9643087841333525</v>
+        <v>0.9659006535570643</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.9921479442717767</v>
+        <v>0.992017816478969</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>933</v>
@@ -3486,19 +3486,19 @@
         <v>1051813</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>1039821</v>
+        <v>1040196</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>1058432</v>
+        <v>1058425</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.9850652752621791</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.9738337958186517</v>
+        <v>0.9741849476875361</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9912641229933719</v>
+        <v>0.9912576436675625</v>
       </c>
     </row>
     <row r="15">
@@ -3590,19 +3590,19 @@
         <v>6059</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>2097</v>
+        <v>2041</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>11304</v>
+        <v>12261</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.01735441132951293</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.006005867588963889</v>
+        <v>0.005845657201713998</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.03237621825594718</v>
+        <v>0.03511619372885585</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>8</v>
@@ -3611,19 +3611,19 @@
         <v>8914</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>4058</v>
+        <v>3970</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>17255</v>
+        <v>16856</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.02330686496355077</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.01061108645894691</v>
+        <v>0.01037937588369784</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.0451176942764798</v>
+        <v>0.04407383873904127</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>14</v>
@@ -3632,19 +3632,19 @@
         <v>14973</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>8179</v>
+        <v>8330</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>25144</v>
+        <v>24771</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.02046613788629313</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.01117978776879405</v>
+        <v>0.01138592266474624</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.03436859672169147</v>
+        <v>0.03385839828906095</v>
       </c>
     </row>
     <row r="17">
@@ -3661,19 +3661,19 @@
         <v>343088</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>337843</v>
+        <v>336886</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>347050</v>
+        <v>347106</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.982645588670487</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.9676237817440521</v>
+        <v>0.9648838062711439</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.9939941324110361</v>
+        <v>0.9941543427982861</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>337</v>
@@ -3682,19 +3682,19 @@
         <v>373541</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>365200</v>
+        <v>365599</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>378397</v>
+        <v>378485</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.9766931350364493</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.9548823057235203</v>
+        <v>0.9559261612609588</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.9893889135410531</v>
+        <v>0.9896206241163021</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>655</v>
@@ -3703,19 +3703,19 @@
         <v>716629</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>706458</v>
+        <v>706831</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>723423</v>
+        <v>723272</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.9795338621137069</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.9656314032783084</v>
+        <v>0.9661416017109389</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.9888202122312059</v>
+        <v>0.9886140773352536</v>
       </c>
     </row>
     <row r="18">
@@ -3807,19 +3807,19 @@
         <v>10212</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>4151</v>
+        <v>4986</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>20161</v>
+        <v>20217</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.03907072946007613</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.01588252780967227</v>
+        <v>0.0190757896920033</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.07713483157453625</v>
+        <v>0.07734730473010643</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>7</v>
@@ -3828,19 +3828,19 @@
         <v>6919</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>2977</v>
+        <v>2951</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>14024</v>
+        <v>12999</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.02332144971242649</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.01003362386748461</v>
+        <v>0.009948481440934369</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.04727085564361157</v>
+        <v>0.04381588723377583</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>15</v>
@@ -3849,19 +3849,19 @@
         <v>17131</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>9132</v>
+        <v>9984</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>27307</v>
+        <v>28030</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.03069813610478152</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.01636429358199851</v>
+        <v>0.01789057971003597</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.04893309983947203</v>
+        <v>0.05022888801592681</v>
       </c>
     </row>
     <row r="20">
@@ -3878,19 +3878,19 @@
         <v>251166</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>241217</v>
+        <v>241161</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>257227</v>
+        <v>256392</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.9609292705399238</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.922865168425464</v>
+        <v>0.9226526952698935</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.9841174721903277</v>
+        <v>0.9809242103079966</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>280</v>
@@ -3899,19 +3899,19 @@
         <v>289747</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>282642</v>
+        <v>283667</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>293689</v>
+        <v>293715</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.9766785502875736</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.9527291443563882</v>
+        <v>0.9561841127662237</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.9899663761325154</v>
+        <v>0.9900515185590656</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>510</v>
@@ -3920,19 +3920,19 @@
         <v>540913</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>530737</v>
+        <v>530014</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>548912</v>
+        <v>548060</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.9693018638952184</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.9510669001605279</v>
+        <v>0.9497711119840732</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.9836357064180015</v>
+        <v>0.9821094202899641</v>
       </c>
     </row>
     <row r="21">
@@ -4027,7 +4027,7 @@
         <v>0</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>4793</v>
+        <v>6358</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.005788899808983464</v>
@@ -4036,7 +4036,7 @@
         <v>0</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.02681824693539282</v>
+        <v>0.03557377013217982</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>12</v>
@@ -4045,19 +4045,19 @@
         <v>13654</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>7405</v>
+        <v>8292</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>22919</v>
+        <v>23846</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.0458071855908922</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.02484075518966193</v>
+        <v>0.02781637088595695</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.07688718376761609</v>
+        <v>0.07999732664184313</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>13</v>
@@ -4066,19 +4066,19 @@
         <v>14689</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>8334</v>
+        <v>8282</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>26148</v>
+        <v>24434</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.03080733814452561</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.01747964780109842</v>
+        <v>0.0173705091884182</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.05483947807092077</v>
+        <v>0.05124576792891983</v>
       </c>
     </row>
     <row r="23">
@@ -4095,7 +4095,7 @@
         <v>177683</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>173925</v>
+        <v>172360</v>
       </c>
       <c r="F23" s="5" t="n">
         <v>178718</v>
@@ -4104,7 +4104,7 @@
         <v>0.9942111001910166</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.9731817530646122</v>
+        <v>0.9644262298678202</v>
       </c>
       <c r="I23" s="6" t="n">
         <v>1</v>
@@ -4116,19 +4116,19 @@
         <v>284432</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>275167</v>
+        <v>274240</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>290681</v>
+        <v>289794</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.9541928144091077</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.9231128162323838</v>
+        <v>0.9200026733581569</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.975159244810338</v>
+        <v>0.9721836291140431</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>416</v>
@@ -4137,19 +4137,19 @@
         <v>462115</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>450656</v>
+        <v>452370</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>468470</v>
+        <v>468522</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.9691926618554744</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.9451605219290793</v>
+        <v>0.9487542320710802</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.9825203521989015</v>
+        <v>0.9826294908115818</v>
       </c>
     </row>
     <row r="24">
@@ -4241,19 +4241,19 @@
         <v>48784</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>35423</v>
+        <v>35427</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>64516</v>
+        <v>64008</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.01719747618908742</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.01248727803276262</v>
+        <v>0.01248860075836421</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.02274304831822391</v>
+        <v>0.0225642179642446</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>77</v>
@@ -4262,19 +4262,19 @@
         <v>86161</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>69001</v>
+        <v>69822</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>108701</v>
+        <v>107476</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.02806370296629063</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.02247442753982996</v>
+        <v>0.02274187612293413</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.03540532009956969</v>
+        <v>0.03500640521527052</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>122</v>
@@ -4283,19 +4283,19 @@
         <v>134945</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>111717</v>
+        <v>111582</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>159120</v>
+        <v>162864</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.02284532806419676</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.01891296821270371</v>
+        <v>0.01889018062068277</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.02693804400646162</v>
+        <v>0.02757179325241267</v>
       </c>
     </row>
     <row r="26">
@@ -4312,19 +4312,19 @@
         <v>2787935</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>2772203</v>
+        <v>2772711</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>2801296</v>
+        <v>2801292</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.9828025238109126</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.9772569516817765</v>
+        <v>0.9774357820357565</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.9875127219672375</v>
+        <v>0.987511399241636</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>2768</v>
@@ -4333,19 +4333,19 @@
         <v>2984023</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>2961483</v>
+        <v>2962708</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>3001183</v>
+        <v>3000362</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.9719362970337093</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.9645946799004294</v>
+        <v>0.9649935947847295</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.9775255724601695</v>
+        <v>0.9772581238770659</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>5394</v>
@@ -4354,19 +4354,19 @@
         <v>5771958</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>5747783</v>
+        <v>5744039</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>5795186</v>
+        <v>5795321</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.9771546719358032</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.9730619559935384</v>
+        <v>0.9724282067475873</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.9810870317872962</v>
+        <v>0.9811098193793172</v>
       </c>
     </row>
     <row r="27">
@@ -4701,19 +4701,19 @@
         <v>11916</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>5831</v>
+        <v>6509</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>20215</v>
+        <v>21213</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.03377072358972562</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.01652567786098865</v>
+        <v>0.01844831712252325</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.05729204253838363</v>
+        <v>0.06012203913016706</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>8</v>
@@ -4722,19 +4722,19 @@
         <v>7620</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>3728</v>
+        <v>3718</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>14178</v>
+        <v>14236</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.0216510058058858</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.01059435380511776</v>
+        <v>0.01056414416815145</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.04028664815645102</v>
+        <v>0.04045147250393797</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>19</v>
@@ -4743,19 +4743,19 @@
         <v>19535</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>12166</v>
+        <v>12221</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>29699</v>
+        <v>30009</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.02771868429807603</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.01726219227567442</v>
+        <v>0.01734031786169967</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.04214060915915371</v>
+        <v>0.04257923474079815</v>
       </c>
     </row>
     <row r="5">
@@ -4772,19 +4772,19 @@
         <v>340924</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>332625</v>
+        <v>331627</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>347009</v>
+        <v>346331</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.9662292764102743</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.9427079574616155</v>
+        <v>0.9398779608698329</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.98347432213901</v>
+        <v>0.9815516828774767</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>351</v>
@@ -4793,19 +4793,19 @@
         <v>344310</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>337752</v>
+        <v>337694</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>348202</v>
+        <v>348212</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.9783489941941143</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.959713351843549</v>
+        <v>0.9595485274960619</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.9894056461948822</v>
+        <v>0.9894358558318485</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>671</v>
@@ -4814,19 +4814,19 @@
         <v>685235</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>675071</v>
+        <v>674761</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>692604</v>
+        <v>692549</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.972281315701924</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.9578593908408463</v>
+        <v>0.9574207652592017</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.9827378077243256</v>
+        <v>0.9826596821383003</v>
       </c>
     </row>
     <row r="6">
@@ -4918,19 +4918,19 @@
         <v>14818</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>8760</v>
+        <v>8155</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>25307</v>
+        <v>24782</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.0300526283518513</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.01776664644577868</v>
+        <v>0.01653980955017994</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.05132535491908456</v>
+        <v>0.05026017021971563</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>16</v>
@@ -4939,19 +4939,19 @@
         <v>16255</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>9863</v>
+        <v>10112</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>26155</v>
+        <v>26373</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.03272488030575773</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.01985675192717339</v>
+        <v>0.02035765326847769</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.05265478394394</v>
+        <v>0.05309452482881424</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>30</v>
@@ -4960,19 +4960,19 @@
         <v>31073</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>20429</v>
+        <v>21645</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>42885</v>
+        <v>43703</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.03139367059096232</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.02063962815274697</v>
+        <v>0.02186857052561239</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.04332680234521472</v>
+        <v>0.04415365424458814</v>
       </c>
     </row>
     <row r="8">
@@ -4989,19 +4989,19 @@
         <v>478260</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>467771</v>
+        <v>468296</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>484318</v>
+        <v>484923</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.9699473716481487</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.9486746450809154</v>
+        <v>0.9497398297802842</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9822333535542213</v>
+        <v>0.98346019044982</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>494</v>
@@ -5010,19 +5010,19 @@
         <v>480465</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>470565</v>
+        <v>470347</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>486857</v>
+        <v>486608</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.9672751196942423</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.9473452160560598</v>
+        <v>0.9469054751711857</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.9801432480728265</v>
+        <v>0.9796423467315222</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>955</v>
@@ -5031,19 +5031,19 @@
         <v>958724</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>946912</v>
+        <v>946094</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>969368</v>
+        <v>968152</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.9686063294090377</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.9566731976547852</v>
+        <v>0.9558463457554119</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.979360371847253</v>
+        <v>0.9781314294743877</v>
       </c>
     </row>
     <row r="9">
@@ -5135,19 +5135,19 @@
         <v>19156</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>11689</v>
+        <v>11208</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>29847</v>
+        <v>29352</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.03433873098321827</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.02095268620122175</v>
+        <v>0.02009156368888481</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.05350282878174406</v>
+        <v>0.05261460941623133</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>12</v>
@@ -5156,19 +5156,19 @@
         <v>12316</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>6407</v>
+        <v>6913</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>20723</v>
+        <v>21878</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.02149057938247902</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.0111805204444241</v>
+        <v>0.01206212485161836</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.03616026696611608</v>
+        <v>0.03817627542388657</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>29</v>
@@ -5177,19 +5177,19 @@
         <v>31472</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>21320</v>
+        <v>21679</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>45916</v>
+        <v>44838</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.02782819795758283</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.01885114226311529</v>
+        <v>0.01916886485440582</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.04060024169361293</v>
+        <v>0.0396462274800316</v>
       </c>
     </row>
     <row r="11">
@@ -5206,19 +5206,19 @@
         <v>538704</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>528013</v>
+        <v>528508</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>546171</v>
+        <v>546652</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.9656612690167817</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.9464971712182562</v>
+        <v>0.9473853905837685</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.9790473137987783</v>
+        <v>0.9799084363111149</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>564</v>
@@ -5227,19 +5227,19 @@
         <v>560764</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>552357</v>
+        <v>551202</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>566673</v>
+        <v>566167</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.978509420617521</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.9638397330338837</v>
+        <v>0.9618237245761134</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.9888194795555759</v>
+        <v>0.9879378751483813</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>1078</v>
@@ -5248,19 +5248,19 @@
         <v>1099468</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>1085024</v>
+        <v>1086102</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>1109620</v>
+        <v>1109261</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.9721718020424172</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.9593997583063866</v>
+        <v>0.9603537725199683</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.9811488577368844</v>
+        <v>0.9808311351455942</v>
       </c>
     </row>
     <row r="12">
@@ -5352,19 +5352,19 @@
         <v>10531</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>5308</v>
+        <v>5278</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>18033</v>
+        <v>18153</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.02055317798945262</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.01036042897051788</v>
+        <v>0.01030094700854567</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.03519541488056614</v>
+        <v>0.03542946023461081</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>12</v>
@@ -5373,19 +5373,19 @@
         <v>13505</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>7307</v>
+        <v>7433</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>21690</v>
+        <v>22490</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.02478485980978127</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.01340958340128028</v>
+        <v>0.01364053810826718</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.03980741806505053</v>
+        <v>0.04127550251881779</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>22</v>
@@ -5394,19 +5394,19 @@
         <v>24036</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>14827</v>
+        <v>15021</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>36754</v>
+        <v>34781</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.02273408452536594</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.01402407751678673</v>
+        <v>0.01420799353797316</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.03476324895620004</v>
+        <v>0.03289756240740781</v>
       </c>
     </row>
     <row r="14">
@@ -5423,19 +5423,19 @@
         <v>501841</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>494339</v>
+        <v>494219</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>507064</v>
+        <v>507094</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.9794468220105473</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.9648045851194355</v>
+        <v>0.9645705397653892</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9896395710294822</v>
+        <v>0.9896990529914544</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>495</v>
@@ -5444,19 +5444,19 @@
         <v>531379</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>523194</v>
+        <v>522394</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>537577</v>
+        <v>537451</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.9752151401902187</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.9601925819349495</v>
+        <v>0.9587244974811823</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.9865904165987197</v>
+        <v>0.9863594618917328</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>948</v>
@@ -5465,19 +5465,19 @@
         <v>1033220</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>1020502</v>
+        <v>1022475</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>1042429</v>
+        <v>1042235</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.977265915474634</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.9652367510437999</v>
+        <v>0.9671024375925922</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9859759224832132</v>
+        <v>0.9857920064620268</v>
       </c>
     </row>
     <row r="15">
@@ -5569,19 +5569,19 @@
         <v>6581</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>3195</v>
+        <v>2248</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>14300</v>
+        <v>14247</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.01773954359645573</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.008610753167420541</v>
+        <v>0.006058202148214401</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.03854447135161286</v>
+        <v>0.03840083069354253</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>13</v>
@@ -5590,19 +5590,19 @@
         <v>15014</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>8355</v>
+        <v>8264</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>24599</v>
+        <v>24461</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.03792560302881338</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.02110453194657375</v>
+        <v>0.02087452995558711</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.06213836010878172</v>
+        <v>0.06179007557584449</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>19</v>
@@ -5611,19 +5611,19 @@
         <v>21595</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>13200</v>
+        <v>13240</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>32479</v>
+        <v>33629</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.02815991241910958</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.01721297705926834</v>
+        <v>0.01726461953347442</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.04235245381099609</v>
+        <v>0.04385143842420874</v>
       </c>
     </row>
     <row r="17">
@@ -5640,19 +5640,19 @@
         <v>364421</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>356702</v>
+        <v>356755</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>367807</v>
+        <v>368754</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.9822604564035443</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.961455528648387</v>
+        <v>0.9615991693064575</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.9913892468325793</v>
+        <v>0.9939417978517856</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>332</v>
@@ -5661,19 +5661,19 @@
         <v>380859</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>371274</v>
+        <v>371412</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>387518</v>
+        <v>387609</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.9620743969711866</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.9378616398912183</v>
+        <v>0.9382099244241555</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.9788954680534263</v>
+        <v>0.979125470044413</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>655</v>
@@ -5682,19 +5682,19 @@
         <v>745280</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>734396</v>
+        <v>733246</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>753675</v>
+        <v>753635</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.9718400875808905</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.9576475461890039</v>
+        <v>0.9561485615757912</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.9827870229407316</v>
+        <v>0.9827353804665256</v>
       </c>
     </row>
     <row r="18">
@@ -5786,19 +5786,19 @@
         <v>4747</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>1866</v>
+        <v>1870</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>10514</v>
+        <v>11155</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.02062984598331477</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.008107460938842017</v>
+        <v>0.008126193580800703</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.04568648673479367</v>
+        <v>0.04847166588082109</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>6</v>
@@ -5807,19 +5807,19 @@
         <v>5935</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>2063</v>
+        <v>2109</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>11833</v>
+        <v>12541</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.02143081434802654</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.0074486010193584</v>
+        <v>0.007614796462394219</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.04272648658657215</v>
+        <v>0.04528432286692201</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>11</v>
@@ -5828,19 +5828,19 @@
         <v>10683</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>5721</v>
+        <v>5572</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>18618</v>
+        <v>17807</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.02106731056927995</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.01128311547768998</v>
+        <v>0.01098937433629579</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.03671652664165294</v>
+        <v>0.03511779668183516</v>
       </c>
     </row>
     <row r="20">
@@ -5857,19 +5857,19 @@
         <v>225378</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>219611</v>
+        <v>218970</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>228259</v>
+        <v>228255</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.9793701540166853</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.9543135132652063</v>
+        <v>0.9515283341191789</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.9918925390611579</v>
+        <v>0.9918738064191993</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>254</v>
@@ -5878,19 +5878,19 @@
         <v>271013</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>265115</v>
+        <v>264407</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>274885</v>
+        <v>274839</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.9785691856519735</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.9572735134134278</v>
+        <v>0.9547156771330779</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.9925513989806416</v>
+        <v>0.9923852035376057</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>475</v>
@@ -5899,19 +5899,19 @@
         <v>496391</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>488456</v>
+        <v>489267</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>501353</v>
+        <v>501502</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.9789326894307201</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.9632834733583472</v>
+        <v>0.9648822033181651</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.98871688452231</v>
+        <v>0.9890106256637042</v>
       </c>
     </row>
     <row r="21">
@@ -6003,19 +6003,19 @@
         <v>8312</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>4280</v>
+        <v>4169</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>15579</v>
+        <v>15398</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.05652113658623214</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.02910176705458811</v>
+        <v>0.02834781121593827</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.1059369898064489</v>
+        <v>0.1047081782943077</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>4</v>
@@ -6024,19 +6024,19 @@
         <v>5755</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>1343</v>
+        <v>1991</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>14541</v>
+        <v>14902</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.02525675307736864</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.005894449814876163</v>
+        <v>0.008739225688101268</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.06381211870405649</v>
+        <v>0.06539395267046712</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>13</v>
@@ -6045,19 +6045,19 @@
         <v>14067</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>8472</v>
+        <v>7710</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>23846</v>
+        <v>24571</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.03751922763445268</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.02259647527803234</v>
+        <v>0.0205624436426081</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.06360033801172317</v>
+        <v>0.06553398258891742</v>
       </c>
     </row>
     <row r="23">
@@ -6074,19 +6074,19 @@
         <v>138745</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>131478</v>
+        <v>131659</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>142777</v>
+        <v>142888</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.9434788634137679</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.8940630101935513</v>
+        <v>0.8952918217056923</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.9708982329454119</v>
+        <v>0.9716521887840617</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>166</v>
@@ -6095,19 +6095,19 @@
         <v>222124</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>213338</v>
+        <v>212977</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>226536</v>
+        <v>225888</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.9747432469226314</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.9361878812959435</v>
+        <v>0.9346060473295327</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.9941055501851238</v>
+        <v>0.9912607743118987</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>332</v>
@@ -6116,19 +6116,19 @@
         <v>360869</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>351090</v>
+        <v>350365</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>366464</v>
+        <v>367226</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.9624807723655473</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.9363996619882764</v>
+        <v>0.9344660174110828</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.9774035247219677</v>
+        <v>0.9794375563573919</v>
       </c>
     </row>
     <row r="24">
@@ -6220,19 +6220,19 @@
         <v>76062</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>59956</v>
+        <v>61233</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>95879</v>
+        <v>96537</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.02854810908582277</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.02250323392969885</v>
+        <v>0.02298264144565058</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.03598608752734221</v>
+        <v>0.03623298584949804</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>71</v>
@@ -6241,19 +6241,19 @@
         <v>76400</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>61366</v>
+        <v>60636</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>95574</v>
+        <v>95888</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.0266450959737319</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.02140197880839943</v>
+        <v>0.02114724741871473</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.03333207058713388</v>
+        <v>0.03344187071669875</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>143</v>
@@ -6262,19 +6262,19 @@
         <v>152462</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>130553</v>
+        <v>127925</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>181074</v>
+        <v>179628</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.02756168734441032</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.02360114880291445</v>
+        <v>0.02312604178608835</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.03273421229694996</v>
+        <v>0.03247283202153808</v>
       </c>
     </row>
     <row r="26">
@@ -6291,19 +6291,19 @@
         <v>2588271</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>2568454</v>
+        <v>2567796</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>2604377</v>
+        <v>2603100</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.9714518909141773</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.9640139124726579</v>
+        <v>0.963767014150502</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.9774967660703012</v>
+        <v>0.9770173585543495</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>2656</v>
@@ -6312,19 +6312,19 @@
         <v>2790915</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>2771741</v>
+        <v>2771427</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>2805949</v>
+        <v>2806679</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.9733549040262681</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.9666679294128661</v>
+        <v>0.9665581292833012</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.9785980211916006</v>
+        <v>0.9788527525812853</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>5114</v>
@@ -6333,19 +6333,19 @@
         <v>5379186</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>5350574</v>
+        <v>5352020</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>5401095</v>
+        <v>5403723</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.9724383126555897</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.9672657877030501</v>
+        <v>0.9675271679784619</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.9763988511970856</v>
+        <v>0.9768739582139117</v>
       </c>
     </row>
     <row r="27">
